--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8676F1-CEC5-4E02-AABD-FE66891AF426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3C571-B3D0-4381-955D-1E3299A1AC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>Culture</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>grasslands excretion</t>
+  </si>
+  <si>
+    <t>Waste (%)</t>
+  </si>
+  <si>
+    <t>Other uses (%)</t>
   </si>
 </sst>
 </file>
@@ -667,16 +673,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -734,7 +740,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -763,7 +769,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -792,7 +798,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -821,7 +827,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -850,7 +856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -879,7 +885,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -921,13 +927,13 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -938,7 +944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -949,7 +955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -974,14 +980,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -995,18 +1001,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1102,22 +1108,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1133,8 +1140,14 @@
       <c r="E1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1150,8 +1163,14 @@
       <c r="E2">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1167,8 +1186,14 @@
       <c r="E3">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1184,8 +1209,14 @@
       <c r="E4">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1201,8 +1232,14 @@
       <c r="E5">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1218,8 +1255,14 @@
       <c r="E6">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1235,8 +1278,14 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1252,8 +1301,14 @@
       <c r="E8">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1269,8 +1324,14 @@
       <c r="E9">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1286,8 +1347,14 @@
       <c r="E10">
         <v>5.3E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1303,8 +1370,14 @@
       <c r="E11">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1319,6 +1392,12 @@
       </c>
       <c r="E12">
         <v>2.5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1335,12 +1414,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1348,7 +1427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1443,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1372,7 +1451,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD3C571-B3D0-4381-955D-1E3299A1AC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F6A86-59F8-42A2-8F1B-8A356CFFA41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Culture</t>
   </si>
@@ -167,9 +167,6 @@
     <t>coefficient N-N2O indirect emission synthetic fertilization (%)</t>
   </si>
   <si>
-    <t>grasslands</t>
-  </si>
-  <si>
     <t>Excreted indoor (%)</t>
   </si>
   <si>
@@ -258,6 +255,12 @@
   </si>
   <si>
     <t>Other uses (%)</t>
+  </si>
+  <si>
+    <t>leguminous grain</t>
+  </si>
+  <si>
+    <t>grazing</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -708,7 +711,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -716,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -745,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -774,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -803,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -832,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -861,7 +864,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -890,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
@@ -938,10 +941,10 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1023,24 +1026,24 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>35.880000000000003</v>
@@ -1048,57 +1051,57 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1114,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,15 +1144,15 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1273,7 +1276,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1287,7 +1290,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1296,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>2.0499999999999998</v>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1453,10 +1456,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8676F1-CEC5-4E02-AABD-FE66891AF426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F6A86-59F8-42A2-8F1B-8A356CFFA41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Culture</t>
   </si>
@@ -167,9 +167,6 @@
     <t>coefficient N-N2O indirect emission synthetic fertilization (%)</t>
   </si>
   <si>
-    <t>grasslands</t>
-  </si>
-  <si>
     <t>Excreted indoor (%)</t>
   </si>
   <si>
@@ -252,6 +249,18 @@
   </si>
   <si>
     <t>grasslands excretion</t>
+  </si>
+  <si>
+    <t>Waste (%)</t>
+  </si>
+  <si>
+    <t>Other uses (%)</t>
+  </si>
+  <si>
+    <t>leguminous grain</t>
+  </si>
+  <si>
+    <t>grazing</t>
   </si>
 </sst>
 </file>
@@ -667,21 +676,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -702,15 +711,15 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -734,12 +743,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -763,12 +772,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -792,12 +801,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -821,12 +830,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -850,12 +859,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -879,12 +888,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
@@ -921,24 +930,24 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -949,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -974,14 +983,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -995,20 +1004,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1017,82 +1026,82 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1102,22 +1111,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1133,10 +1143,16 @@
       <c r="E1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1150,10 +1166,16 @@
       <c r="E2">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1167,10 +1189,16 @@
       <c r="E3">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1184,10 +1212,16 @@
       <c r="E4">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1201,10 +1235,16 @@
       <c r="E5">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1218,10 +1258,16 @@
       <c r="E6">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1230,15 +1276,21 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1247,15 +1299,21 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1269,8 +1327,14 @@
       <c r="E9">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1286,10 +1350,16 @@
       <c r="E10">
         <v>5.3E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1303,8 +1373,14 @@
       <c r="E11">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1319,6 +1395,12 @@
       </c>
       <c r="E12">
         <v>2.5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1335,12 +1417,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1348,7 +1430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1356,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1446,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1372,12 +1454,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F6A86-59F8-42A2-8F1B-8A356CFFA41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF5D54-F9E1-4CE9-8549-B6143A6FC7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Soya beans</t>
   </si>
   <si>
-    <t>natural meadow</t>
-  </si>
-  <si>
     <t>Nitrogen Content (%)</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>grazing</t>
+  </si>
+  <si>
+    <t>natural meadows</t>
   </si>
 </sst>
 </file>
@@ -672,25 +672,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -711,15 +711,15 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -743,12 +743,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -772,12 +772,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -801,12 +801,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -830,12 +830,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -859,12 +859,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -888,15 +888,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -930,24 +930,24 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -958,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -983,14 +983,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1008,16 +1008,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1026,82 +1026,82 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1113,21 +1113,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1141,18 +1141,18 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1173,9 +1173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1196,9 +1196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1219,9 +1219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1242,9 +1242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1265,9 +1265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1276,7 +1276,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1288,9 +1288,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1299,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>2.0499999999999998</v>
@@ -1311,9 +1311,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1334,9 +1334,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1357,9 +1357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1380,9 +1380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1391,7 +1391,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>2.5</v>
@@ -1417,49 +1417,49 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF5D54-F9E1-4CE9-8549-B6143A6FC7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784E8C7-7BA6-4E69-ADE0-7BEFD19320D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>Culture</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>natural meadows</t>
+  </si>
+  <si>
+    <t>Forage</t>
+  </si>
+  <si>
+    <t>Forage crop</t>
+  </si>
+  <si>
+    <t>forage</t>
   </si>
 </sst>
 </file>
@@ -341,7 +350,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -352,6 +361,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -915,6 +925,35 @@
       </c>
       <c r="I8" s="4">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,6 +1439,29 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784E8C7-7BA6-4E69-ADE0-7BEFD19320D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8195474B-CFD1-4A69-83A2-D8450A6AEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Culture</t>
   </si>
@@ -270,6 +270,33 @@
   </si>
   <si>
     <t>forage</t>
+  </si>
+  <si>
+    <t>Methanization power (MWh/tMB)</t>
+  </si>
+  <si>
+    <t>Methanizer Energy Production (GWh)</t>
+  </si>
+  <si>
+    <t>Weight methanizer production</t>
+  </si>
+  <si>
+    <t>Weight methanizer inputs</t>
+  </si>
+  <si>
+    <t>Green waste methanization power (MWh/ktN)</t>
+  </si>
+  <si>
+    <t>Production (kton)</t>
+  </si>
+  <si>
+    <t>Area (ha)</t>
+  </si>
+  <si>
+    <t>Spreading Rate (%)</t>
+  </si>
+  <si>
+    <t>Seed input (kt seeds/kt Ymax)</t>
   </si>
 </sst>
 </file>
@@ -680,10 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,9 +723,12 @@
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="26.54296875" customWidth="1"/>
     <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +756,17 @@
       <c r="I1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -752,8 +794,17 @@
       <c r="I2" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -781,8 +832,17 @@
       <c r="I3" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -810,8 +870,17 @@
       <c r="I4" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -839,8 +908,17 @@
       <c r="I5" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -868,8 +946,17 @@
       <c r="I6" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -897,8 +984,17 @@
       <c r="I7" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -926,8 +1022,17 @@
       <c r="I8" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -953,6 +1058,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1041,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,9 +1166,12 @@
     <col min="1" max="1" width="28.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1073,8 +1190,11 @@
       <c r="F1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1087,8 +1207,11 @@
       <c r="D2">
         <v>35.880000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1098,8 +1221,11 @@
       <c r="C3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1109,8 +1235,11 @@
       <c r="C4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1120,8 +1249,11 @@
       <c r="C5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1131,8 +1263,11 @@
       <c r="C6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1141,6 +1276,9 @@
       </c>
       <c r="C7" t="s">
         <v>67</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1150,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,9 +1302,11 @@
     <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="28.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1188,8 +1328,14 @@
       <c r="G1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1211,8 +1357,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1234,8 +1383,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1257,8 +1409,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1280,8 +1435,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1303,8 +1461,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1326,8 +1487,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1349,8 +1513,11 @@
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1372,8 +1539,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1395,8 +1565,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1418,8 +1591,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1441,8 +1617,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1462,6 +1641,12 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -1473,15 +1658,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1524,6 +1710,38 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8195474B-CFD1-4A69-83A2-D8450A6AEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A881A15-0F0B-444B-AF59-E138D906E5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>Culture</t>
   </si>
@@ -1155,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1169,9 +1169,10 @@
     <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" customWidth="1"/>
     <col min="7" max="7" width="28.90625" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1193,8 +1194,11 @@
       <c r="G1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1210,8 +1214,11 @@
       <c r="G2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1224,8 +1231,11 @@
       <c r="G3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1238,8 +1248,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1252,8 +1265,11 @@
       <c r="G5">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1266,8 +1282,11 @@
       <c r="G6">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1278,6 +1297,9 @@
         <v>67</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -1290,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1660,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A881A15-0F0B-444B-AF59-E138D906E5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8D7BB-3E41-4C41-8E1B-A3A46DBA9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>Culture</t>
   </si>
@@ -272,9 +272,6 @@
     <t>forage</t>
   </si>
   <si>
-    <t>Methanization power (MWh/tMB)</t>
-  </si>
-  <si>
     <t>Methanizer Energy Production (GWh)</t>
   </si>
   <si>
@@ -297,6 +294,12 @@
   </si>
   <si>
     <t>Seed input (kt seeds/kt Ymax)</t>
+  </si>
+  <si>
+    <t>Methanization power (MWh/tFW)</t>
+  </si>
+  <si>
+    <t>Weight import</t>
   </si>
 </sst>
 </file>
@@ -757,13 +760,13 @@
         <v>52</v>
       </c>
       <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.35">
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,7 +1161,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
         <v>31</v>
@@ -1313,7 +1316,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,10 +1354,10 @@
         <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1680,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1734,15 +1737,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1758,10 +1761,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8D7BB-3E41-4C41-8E1B-A3A46DBA9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148CCE2C-F59C-4D88-9908-DFFD3B21270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -712,11 +712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,7 +1685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784E8C7-7BA6-4E69-ADE0-7BEFD19320D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148CCE2C-F59C-4D88-9908-DFFD3B21270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>Culture</t>
   </si>
@@ -270,6 +270,36 @@
   </si>
   <si>
     <t>forage</t>
+  </si>
+  <si>
+    <t>Methanizer Energy Production (GWh)</t>
+  </si>
+  <si>
+    <t>Weight methanizer production</t>
+  </si>
+  <si>
+    <t>Weight methanizer inputs</t>
+  </si>
+  <si>
+    <t>Green waste methanization power (MWh/ktN)</t>
+  </si>
+  <si>
+    <t>Production (kton)</t>
+  </si>
+  <si>
+    <t>Area (ha)</t>
+  </si>
+  <si>
+    <t>Spreading Rate (%)</t>
+  </si>
+  <si>
+    <t>Seed input (kt seeds/kt Ymax)</t>
+  </si>
+  <si>
+    <t>Methanization power (MWh/tFW)</t>
+  </si>
+  <si>
+    <t>Weight import</t>
   </si>
 </sst>
 </file>
@@ -680,10 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,9 +726,12 @@
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="26.54296875" customWidth="1"/>
     <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +759,17 @@
       <c r="I1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -752,8 +797,17 @@
       <c r="I2" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -781,8 +835,17 @@
       <c r="I3" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -810,8 +873,17 @@
       <c r="I4" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -839,8 +911,17 @@
       <c r="I5" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -868,8 +949,17 @@
       <c r="I6" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -897,8 +987,17 @@
       <c r="I7" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -926,8 +1025,17 @@
       <c r="I8" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -953,6 +1061,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -966,7 +1083,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1041,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,9 +1169,13 @@
     <col min="1" max="1" width="28.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="28.90625" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1073,8 +1194,14 @@
       <c r="F1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1087,8 +1214,14 @@
       <c r="D2">
         <v>35.880000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>0.23</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1098,8 +1231,14 @@
       <c r="C3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1109,8 +1248,14 @@
       <c r="C4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1120,8 +1265,14 @@
       <c r="C5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0.54</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1131,8 +1282,14 @@
       <c r="C6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0.21</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1141,6 +1298,12 @@
       </c>
       <c r="C7" t="s">
         <v>67</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1150,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,9 +1327,11 @@
     <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="28.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1188,8 +1353,14 @@
       <c r="G1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1211,8 +1382,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1234,8 +1408,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1257,8 +1434,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1280,8 +1460,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1303,8 +1486,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1326,8 +1512,11 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1349,8 +1538,11 @@
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1372,8 +1564,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1395,8 +1590,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1418,8 +1616,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1441,8 +1642,11 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1462,6 +1666,12 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -1473,15 +1683,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1524,6 +1735,46 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148CCE2C-F59C-4D88-9908-DFFD3B21270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770D463-6F9C-4228-80EE-26B8ABFDC7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
     <sheet name="livestock" sheetId="2" r:id="rId2"/>
     <sheet name="pop" sheetId="18" r:id="rId3"/>
-    <sheet name="excretion" sheetId="20" r:id="rId4"/>
-    <sheet name="prod" sheetId="12" r:id="rId5"/>
-    <sheet name="global" sheetId="19" r:id="rId6"/>
+    <sheet name="energy" sheetId="21" r:id="rId4"/>
+    <sheet name="excretion" sheetId="20" r:id="rId5"/>
+    <sheet name="prod" sheetId="12" r:id="rId6"/>
+    <sheet name="global" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>Culture</t>
   </si>
@@ -272,18 +273,6 @@
     <t>forage</t>
   </si>
   <si>
-    <t>Methanizer Energy Production (GWh)</t>
-  </si>
-  <si>
-    <t>Weight methanizer production</t>
-  </si>
-  <si>
-    <t>Weight methanizer inputs</t>
-  </si>
-  <si>
-    <t>Green waste methanization power (MWh/ktN)</t>
-  </si>
-  <si>
     <t>Production (kton)</t>
   </si>
   <si>
@@ -293,20 +282,65 @@
     <t>Spreading Rate (%)</t>
   </si>
   <si>
-    <t>Seed input (kt seeds/kt Ymax)</t>
-  </si>
-  <si>
-    <t>Methanization power (MWh/tFW)</t>
-  </si>
-  <si>
     <t>Weight import</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
+  <si>
+    <t>b_2023_fr</t>
+  </si>
+  <si>
+    <t>p_2023_fr</t>
+  </si>
+  <si>
+    <t>fr_2023_fr</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Weight energy production</t>
+  </si>
+  <si>
+    <t>Weight energy inputs</t>
+  </si>
+  <si>
+    <t>Seed input (ktN/ktN)</t>
+  </si>
+  <si>
+    <t>Total Synthetic Fertilizer Use on crops (ktN)</t>
+  </si>
+  <si>
+    <t>Total Synthetic Fertilizer Use on grasslands (ktN)</t>
+  </si>
+  <si>
+    <t>Target Energy Production (GWh)</t>
+  </si>
+  <si>
+    <t>Methanizer</t>
+  </si>
+  <si>
+    <t>Methanizer_diet</t>
+  </si>
+  <si>
+    <t>Bioraffinery</t>
+  </si>
+  <si>
+    <t>Bio_diet</t>
+  </si>
+  <si>
+    <t>Green waste nitrogen content (%)</t>
+  </si>
+  <si>
+    <t>Share CO2 (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +372,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -380,7 +422,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -392,6 +434,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,11 +756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973E28D2-5D19-4409-920F-79B00DDA2ABC}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,13 +804,13 @@
         <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.35">
@@ -1043,7 +1087,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1080,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12223D9-0A39-4CC4-B45B-34CE66BF62BA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,7 +1136,7 @@
     <col min="3" max="3" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1102,8 +1146,11 @@
       <c r="C1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1160,11 @@
       <c r="C2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1123,6 +1173,9 @@
       </c>
       <c r="C3">
         <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1133,22 +1186,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE2E00F-78C5-47A0-A96B-9CB3B1AB6545}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1157,11 +1216,85 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFCB2E5-50C4-494B-B397-F4A184BDF7BD}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1171,11 +1304,10 @@
     <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1195,13 +1327,10 @@
         <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1215,13 +1344,10 @@
         <v>35.880000000000003</v>
       </c>
       <c r="G2">
-        <v>0.23</v>
-      </c>
-      <c r="H2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1232,13 +1358,10 @@
         <v>66</v>
       </c>
       <c r="G3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1251,11 +1374,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1266,13 +1386,10 @@
         <v>65</v>
       </c>
       <c r="G5">
-        <v>0.54</v>
-      </c>
-      <c r="H5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1283,13 +1400,10 @@
         <v>66</v>
       </c>
       <c r="G6">
-        <v>0.21</v>
-      </c>
-      <c r="H6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1300,9 +1414,6 @@
         <v>67</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -1311,12 +1422,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9008F097-1A19-4A13-A439-D292DC31E615}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,11 +1438,10 @@
     <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="28.90625" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1354,13 +1464,10 @@
         <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1382,11 +1489,8 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1408,11 +1512,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1434,11 +1535,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1460,11 +1558,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1486,11 +1581,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1512,11 +1604,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1538,11 +1627,8 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1564,11 +1650,8 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1590,11 +1673,8 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1616,11 +1696,8 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1642,11 +1719,8 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1669,9 +1743,6 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.25</v>
-      </c>
-      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -1681,12 +1752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1737,23 +1808,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1761,19 +1832,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>50000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/GRAFS_project_example_N.xlsx
+++ b/example/GRAFS_project_example_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faustega\Documents\These\isterre-dynamic-modeling\grafs-e-project\grafs-e\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770D463-6F9C-4228-80EE-26B8ABFDC7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3976C371-5BA1-4522-9FAF-67612796AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{092E5AC7-17CB-4282-9989-CDCB089F75B9}"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" r:id="rId1"/>
@@ -1293,8 +1293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEBB00-B56F-4BED-97E3-E735E21789EF}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1307,26 +1310,26 @@
     <col min="7" max="7" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1427,7 +1430,10 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,29 +1447,29 @@
     <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1756,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D1BE3-7A15-4223-93AE-9AB753B07534}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
